--- a/投资时间表.xlsx
+++ b/投资时间表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>类型</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>投递网址</t>
+  </si>
+  <si>
+    <t>状态</t>
   </si>
   <si>
     <t>私募</t>
@@ -401,12 +404,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -733,7 +748,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,16 +772,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -775,97 +790,106 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1392,13 +1416,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
@@ -1408,7 +1432,7 @@
     <col min="8" max="8" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,363 +1454,371 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:8">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+      <formula1>"未投,已投,笔试,一面,二面,终面,OC,被拒"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="北京聚宽投资管理有限公司 - 校园招聘"/>
     <hyperlink ref="H3" r:id="rId2" display="Wind-招聘" tooltip="https://www.wind.com.cn/mobile/JoinUS/RecruitDetail/zh.html?entry=school"/>
@@ -1798,8 +1830,12 @@
     <hyperlink ref="H12" r:id="rId8" display="上海农商银行校园招聘职位" tooltip="https://shrcb.zhiye.com/campus/jobs"/>
     <hyperlink ref="H14" r:id="rId9" display="苏商银行 - 校园招聘"/>
     <hyperlink ref="H20" r:id="rId10" display="中国工商银行人才招聘"/>
+    <hyperlink ref="H16" r:id="rId11" display="jobs@baiontcapital.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="I$1:I$1048576" listDataValidation="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/投资时间表.xlsx
+++ b/投资时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17175"/>
+    <workbookView windowWidth="19575" windowHeight="17175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="142">
   <si>
     <t>类型</t>
   </si>
@@ -74,6 +74,9 @@
     <t>北京聚宽投资管理有限公司 - 校园招聘</t>
   </si>
   <si>
+    <t>未投</t>
+  </si>
+  <si>
     <t>金融科技</t>
   </si>
   <si>
@@ -113,6 +116,12 @@
     <t>2025.08.02</t>
   </si>
   <si>
+    <t>管培</t>
+  </si>
+  <si>
+    <t>徽商银行招聘系统</t>
+  </si>
+  <si>
     <t>凯读投资</t>
   </si>
   <si>
@@ -231,6 +240,239 @@
   </si>
   <si>
     <t>中国建设银行</t>
+  </si>
+  <si>
+    <t>相聚资本</t>
+  </si>
+  <si>
+    <t>实习</t>
+  </si>
+  <si>
+    <t>2025.06.24</t>
+  </si>
+  <si>
+    <t>hr@jucc.com.cn，邮件主题为 应聘职位_姓名_年龄_院校_专业</t>
+  </si>
+  <si>
+    <t>世纪前沿（百亿）</t>
+  </si>
+  <si>
+    <t>实习留用</t>
+  </si>
+  <si>
+    <t>2025.06.13</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>佳期私募（百亿）</t>
+  </si>
+  <si>
+    <t>2025.08.06</t>
+  </si>
+  <si>
+    <t>careers@jqinvestments.com +期待岗位</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>浙江四邦实业</t>
+  </si>
+  <si>
+    <t>大宗商品交易员</t>
+  </si>
+  <si>
+    <t>【大宗商品交易员（旌安上海）招聘】_浙江四邦实业有限公司招聘信息-应届生求职网</t>
+  </si>
+  <si>
+    <t>已投</t>
+  </si>
+  <si>
+    <t>爱凡哲投资（20亿）</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>recruit@avgtech.com.cn</t>
+  </si>
+  <si>
+    <r>
+      <t>少薮派投资（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4C4F54"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50-100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4C4F54"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>hr@ishaoshu.com</t>
+  </si>
+  <si>
+    <t>明毅私募（100）</t>
+  </si>
+  <si>
+    <t>投资研究岗</t>
+  </si>
+  <si>
+    <t>hr@myfund.cn</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>浙商证券</t>
+  </si>
+  <si>
+    <t>行业研究</t>
+  </si>
+  <si>
+    <t>诺德基金</t>
+  </si>
+  <si>
+    <t>hr@nuodefund.com +姓名-应聘职位”</t>
+  </si>
+  <si>
+    <t>华泰保兴基金（70）</t>
+  </si>
+  <si>
+    <t>htbx_zp@ehuatai.com + 邮件主题：投资研究+学校+姓名</t>
+  </si>
+  <si>
+    <t>粒子跃动（5-10）</t>
+  </si>
+  <si>
+    <t>lzsmjjhr@163.com；邮件命名方式:岗位+学校+姓名+联系方式</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>拼多多</t>
+  </si>
+  <si>
+    <t>产品管培</t>
+  </si>
+  <si>
+    <t>拼多多集团-PDD校园招聘官网</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+  </si>
+  <si>
+    <t>金融风险管理</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>岗位详情 | 腾讯校招</t>
+  </si>
+  <si>
+    <t>阿里健康</t>
+  </si>
+  <si>
+    <t>风险策略运营</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>阿里云</t>
+  </si>
+  <si>
+    <t>风险管理类</t>
+  </si>
+  <si>
+    <t>风控策略专员-云安全</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>风控模型-汽车金融</t>
+  </si>
+  <si>
+    <t>风控模型-汽车金融 - 小米校园招聘</t>
+  </si>
+  <si>
+    <t>快手</t>
+  </si>
+  <si>
+    <t>风险策略分析师</t>
+  </si>
+  <si>
+    <t>快手校招 - 职位详情</t>
+  </si>
+  <si>
+    <t>青骊投资（20-50）</t>
+  </si>
+  <si>
+    <t>研究部实习生</t>
+  </si>
+  <si>
+    <t>hr@sh-knight.com  + “应聘岗位+姓名+学校专业背景”</t>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>金融风控策略</t>
+  </si>
+  <si>
+    <t>职位详情 | 美团招聘</t>
+  </si>
+  <si>
+    <t>启林投资</t>
+  </si>
+  <si>
+    <t>高频因子方向</t>
+  </si>
+  <si>
+    <t>hr@70capital.com</t>
+  </si>
+  <si>
+    <t>财通证券</t>
+  </si>
+  <si>
+    <t>股票研究员</t>
+  </si>
+  <si>
+    <t>职位详情 - 自营投资总部-股票研究员</t>
+  </si>
+  <si>
+    <t>微博</t>
+  </si>
+  <si>
+    <t>2025.08.17</t>
+  </si>
+  <si>
+    <t>商业管培生</t>
+  </si>
+  <si>
+    <t>新浪集团 - 校园招聘</t>
+  </si>
+  <si>
+    <t>湖南岚湖私募（50-100）</t>
+  </si>
+  <si>
+    <t>应届生</t>
   </si>
 </sst>
 </file>
@@ -243,7 +485,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,12 +510,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF4C4F54"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4C4F54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF4C4F54"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFEF8B00"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -404,24 +671,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -745,141 +1000,138 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,7 +1140,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,10 +1680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1454,14 +1718,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
+    <row r="2" customHeight="1" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1480,342 +1744,925 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" spans="1:9">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
+      <c r="H16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:9">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:9">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:9">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I26 I27 I28 I29 I30 I33 I1:I3 I4:I5 I6:I21 I22:I25 I31:I32 I34:I42 I43:I44 I45:I1048576">
       <formula1>"未投,已投,笔试,一面,二面,终面,OC,被拒"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1831,11 +2678,27 @@
     <hyperlink ref="H14" r:id="rId9" display="苏商银行 - 校园招聘"/>
     <hyperlink ref="H20" r:id="rId10" display="中国工商银行人才招聘"/>
     <hyperlink ref="H16" r:id="rId11" display="jobs@baiontcapital.com"/>
+    <hyperlink ref="H23" r:id="rId12" display="无" tooltip="https://www.career.zju.edu.cn/jyxt/sczp/zpztgl/ckZpgwXq.zf?dwxxid=JG1226382&amp;zpxxbh=b90985e022794dc4b9d10e877fcc5379"/>
+    <hyperlink ref="H25" r:id="rId13" display="【大宗商品交易员（旌安上海）招聘】_浙江四邦实业有限公司招聘信息-应届生求职网" tooltip="https://q.yingjiesheng.com/jobdetail/154281361.html?property={&quot;isInitiative&quot;:&quot;%E6%98%AF&quot;,&quot;keyword&quot;:&quot;%E7%A7%81%E5%8B%9F&quot;,&quot;isSuggest&quot;:&quot;%E5%90%A6&quot;,&quot;pageCode&quot;:&quot;recommend|search|jobsearchlb&quot;,&quot;requestId&quot;:&quot;3787c082a1d97e847d971bf8250ea13e&quot;,&quot;policyType&quot;:&quot;%E6%90%9"/>
+    <hyperlink ref="H26" r:id="rId14" display="recruit@avgtech.com.cn"/>
+    <hyperlink ref="H27" r:id="rId15" display="hr@ishaoshu.com"/>
+    <hyperlink ref="H28" r:id="rId16" display="hr@myfund.cn" tooltip="mailto:hr@myfund.cn"/>
+    <hyperlink ref="H5" r:id="rId17" display="徽商银行招聘系统"/>
+    <hyperlink ref="H33" r:id="rId18" display="拼多多集团-PDD校园招聘官网" tooltip="https://careers.pddglobalhr.com/campus/grad/detail?positionId=526640dd-735a-49af-bbd5-fed17cf860e0"/>
+    <hyperlink ref="H34" r:id="rId19" display="岗位详情 | 腾讯校招" tooltip="https://join.qq.com/post_detail.html?postid=1150219619483799552"/>
+    <hyperlink ref="H35" r:id="rId20" display="风险策略运营" tooltip="https://careers.alihealth.cn/campus/position-detail?lang=zh&amp;positionId=199900260051"/>
+    <hyperlink ref="H36" r:id="rId21" display="风控策略专员-云安全" tooltip="https://careers.aliyun.com/campus/position-detail?lang=zh&amp;positionId=9950263004"/>
+    <hyperlink ref="H37" r:id="rId22" display="风控模型-汽车金融 - 小米校园招聘" tooltip="https://xiaomi.jobs.f.mioffice.cn/campus/position/7532384688615276653/detail?spread=J7NS6YR"/>
+    <hyperlink ref="H38" r:id="rId23" display="快手校招 - 职位详情"/>
+    <hyperlink ref="H40" r:id="rId24" display="职位详情 | 美团招聘" tooltip="https://zhaopin.meituan.com/web/position/detail?jobUnionId=3572439144&amp;highlightType=campus"/>
+    <hyperlink ref="H41" r:id="rId25" display="hr@70capital.com"/>
+    <hyperlink ref="H42" r:id="rId26" display="职位详情 - 自营投资总部-股票研究员" tooltip="https://www.hotjob.cn/wt/CT/web/index/webPositionN300!getOnePosition?postId=159001&amp;recruitType=1&amp;brandCode=1&amp;columnId=1&amp;importPost=0"/>
+    <hyperlink ref="H43" r:id="rId27" display="新浪集团 - 校园招聘"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I$1:I$1048576" listDataValidation="1"/>
+    <ignoredError sqref="I45:I1048574 I3 I1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/投资时间表.xlsx
+++ b/投资时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19575" windowHeight="17175"/>
+    <workbookView windowHeight="17175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="156">
   <si>
     <t>类型</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4C4F54"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>少薮派投资（</t>
     </r>
     <r>
@@ -474,6 +480,48 @@
   <si>
     <t>应届生</t>
   </si>
+  <si>
+    <t>乾象</t>
+  </si>
+  <si>
+    <t>乾象投资 - Experienced Hires</t>
+  </si>
+  <si>
+    <t>正定私募</t>
+  </si>
+  <si>
+    <t>2025.08.11</t>
+  </si>
+  <si>
+    <t>策略研究员</t>
+  </si>
+  <si>
+    <t>北京正定私募基金管理合伙企业（有限合伙） - 校园招聘</t>
+  </si>
+  <si>
+    <t>龙湖地产</t>
+  </si>
+  <si>
+    <t>财务管理</t>
+  </si>
+  <si>
+    <t>龙湖集团2026届校园招聘</t>
+  </si>
+  <si>
+    <t>得物</t>
+  </si>
+  <si>
+    <t>风控策略</t>
+  </si>
+  <si>
+    <t>得物App校园招聘</t>
+  </si>
+  <si>
+    <t>财经线培训生—专业类</t>
+  </si>
+  <si>
+    <t>岗位投递 | 腾讯校招</t>
+  </si>
 </sst>
 </file>
 
@@ -485,7 +533,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,13 +576,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF4C4F54"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1006,128 +1047,128 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,9 +1191,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1680,10 +1718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2288,13 +2326,13 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I28" t="s">
@@ -2660,9 +2698,127 @@
         <v>86</v>
       </c>
     </row>
+    <row r="45" customHeight="1" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:9">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:9">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:9">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I26 I27 I28 I29 I30 I33 I1:I3 I4:I5 I6:I21 I22:I25 I31:I32 I34:I42 I43:I44 I45:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I45 I46 I47 I1:I44 I48:I49 I50:I1048576">
       <formula1>"未投,已投,笔试,一面,二面,终面,OC,被拒"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2694,11 +2850,16 @@
     <hyperlink ref="H41" r:id="rId25" display="hr@70capital.com"/>
     <hyperlink ref="H42" r:id="rId26" display="职位详情 - 自营投资总部-股票研究员" tooltip="https://www.hotjob.cn/wt/CT/web/index/webPositionN300!getOnePosition?postId=159001&amp;recruitType=1&amp;brandCode=1&amp;columnId=1&amp;importPost=0"/>
     <hyperlink ref="H43" r:id="rId27" display="新浪集团 - 校园招聘"/>
+    <hyperlink ref="H45" r:id="rId28" display="乾象投资 - Experienced Hires"/>
+    <hyperlink ref="H46" r:id="rId29" display="北京正定私募基金管理合伙企业（有限合伙） - 校园招聘"/>
+    <hyperlink ref="H47" r:id="rId30" location="jobs" display="龙湖集团2026届校园招聘"/>
+    <hyperlink ref="H48" r:id="rId31" display="得物App校园招聘" tooltip="https://poizon.jobs.feishu.cn/578078/position/list?keywords=&amp;category=&amp;location=&amp;project=7532800693679147274,7532799638904342825&amp;type=&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=7287149935865579813&amp;tag="/>
+    <hyperlink ref="H49" r:id="rId32" display="岗位投递 | 腾讯校招" tooltip="https://join.qq.com/post.html?query=6_326,p_1&amp;keyword=%E9%A3%8E%E9%99%A9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I45:I1048574 I3 I1" listDataValidation="1"/>
+    <ignoredError sqref="I1 I3 I50:I1048574" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/投资时间表.xlsx
+++ b/投资时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beiji\Desktop\实习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28052BF1-178B-4D34-B68A-E062D1390DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139B615-0D1B-4F87-BA31-9B4FE3C19A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="232">
   <si>
     <t>类型</t>
   </si>
@@ -716,13 +716,116 @@
     <t>量化研究员（风险管理）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>度小满</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网金融</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.08.15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控策略岗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>度小满2026校园招聘</t>
+  </si>
+  <si>
+    <t>上海、北京</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海天演私募基金管理有限公司 - 校园招聘</t>
+  </si>
+  <si>
+    <t>天演私募（百亿）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.08.14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中低频量化研究员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎英计划 – 鼎一投资官方网站</t>
+  </si>
+  <si>
+    <t>鼎一投资（20-50）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资研究部管培</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京、上海</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo招聘</t>
+  </si>
+  <si>
+    <t>财经管理经理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.08.16</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.09.12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhaopin.meituan.com/web/position/detail?jobUnionId=3572379279&amp;highlightType=campus&amp;sessionid=</t>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战略与投资分析师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月上旬</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -874,7 +977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,7 +1005,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -913,9 +1016,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1408,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1567,7 +1667,7 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>190</v>
       </c>
       <c r="I6" t="s">
@@ -2554,10 +2654,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C51" t="s">
@@ -2583,7 +2683,7 @@
       <c r="A52" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C52" t="s">
@@ -2754,7 +2854,7 @@
       <c r="F58" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -2780,14 +2880,144 @@
       <c r="F59" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="I59" s="8" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H64" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2878,8 +3108,12 @@
     <hyperlink ref="H30" r:id="rId47" xr:uid="{3E3247F2-565D-4819-BAC3-BF266F1E791F}"/>
     <hyperlink ref="H31" r:id="rId48" xr:uid="{59FF6E9C-AC77-4974-BEA1-04053F6616D9}"/>
     <hyperlink ref="H38" r:id="rId49" xr:uid="{6B742065-4B07-4F01-A8FD-211FF988A7C0}"/>
+    <hyperlink ref="H60" r:id="rId50" display="https://campus.duxiaoman.com/051736/position/list?keywords=&amp;category=&amp;location=&amp;project=7525275560747993382&amp;type=&amp;job_hot_flag=&amp;current=3&amp;limit=10&amp;functionCategory=&amp;tag=" xr:uid="{E8766518-EC56-4F65-89E1-4C0390CE2068}"/>
+    <hyperlink ref="H61" r:id="rId51" location="/job/dbdfd769-a8d7-4e74-86a1-8af1e1ded075" display="https://app.mokahr.com/campus-recruitment/tianyancapital/98902?locale=zh-CN - /job/dbdfd769-a8d7-4e74-86a1-8af1e1ded075" xr:uid="{0B91A88D-6560-4697-ACDC-A551AF02B439}"/>
+    <hyperlink ref="H62" r:id="rId52" display="http://www.dclfund.com/internship-plan/" xr:uid="{944F8096-CE9E-488F-BE72-E1C856490222}"/>
+    <hyperlink ref="H63" r:id="rId53" display="https://hr-campus.vivo.com/campus/detail?jobAdId=c233723c-6aa4-4634-9472-7c1f37d57120" xr:uid="{E1A3358B-D990-493F-A9AE-F55558EAAEF4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/投资时间表.xlsx
+++ b/投资时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beiji\Desktop\实习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139B615-0D1B-4F87-BA31-9B4FE3C19A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682A37A1-E921-4F70-A090-39BC59A2418C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="302">
   <si>
     <t>类型</t>
   </si>
@@ -818,6 +818,275 @@
   <si>
     <t>9月上旬</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>明汯投资（百亿）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化研究员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海、香港</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化研究员（2026校招） - 明汯投资期待你的加入</t>
+  </si>
+  <si>
+    <t>未投</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国平安校园招聘</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>权益研究员、总行管培</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险策略分析</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴 - 校园招聘</t>
+  </si>
+  <si>
+    <t>风险策略</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔招聘-海尔官方招聘网站</t>
+  </si>
+  <si>
+    <t>中信建投</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.10.30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>校招职位</t>
+  </si>
+  <si>
+    <t>资管业务助理——多资产投资</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服26届校招-财经管培生_深信服校园招聘-深信服招聘</t>
+  </si>
+  <si>
+    <t>财经管培生</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>未投</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹科</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁集团招聘官网</t>
+  </si>
+  <si>
+    <t>蚂蚁集团</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金管理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽岩资本（百亿）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化研究员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化策略研究员 - 顽岩资产 | 校园招聘</t>
+  </si>
+  <si>
+    <t>孝庸基金（50-100）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化策略研究员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为财经</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>财经专员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>career.huawei.com/reccampportal/portal5/campus-recruitment-detail.html?jobId=24310&amp;dataSource=1&amp;jobType=0&amp;recruitType=CR&amp;sourceType=001</t>
+  </si>
+  <si>
+    <t>资金管理/财务专员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr@xyasset.cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr@fspring.com(请注明申请岗位)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资管培生</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银叶投资（百亿）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海银行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>总行管理培训生</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园招聘列表</t>
+  </si>
+  <si>
+    <t>大道投资（50-100亿）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化策略研究员</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证信用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融科技</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>量化分析岗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t> 中证信用</t>
   </si>
 </sst>
 </file>
@@ -1507,11 +1776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1576,7 +1844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1648,7 +1916,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1674,7 +1942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1726,7 +1994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1743,7 +2011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1766,7 +2034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1789,7 +2057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1812,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1855,7 +2123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1901,7 +2169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="17" spans="1:9" ht="16.5" customHeight="1">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1915,7 +2183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="18" spans="1:9" ht="16.5" customHeight="1">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1935,7 +2203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="19" spans="1:9" ht="16.5" customHeight="1">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -1946,7 +2214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:9" ht="16.5" customHeight="1">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2012,7 +2280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:9" ht="16.5" customHeight="1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2038,7 +2306,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:9" ht="16.5" customHeight="1">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2081,7 +2349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="26" spans="1:9" ht="16.5" customHeight="1">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2437,7 +2705,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="42" spans="1:9" ht="16.5" customHeight="1">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +2731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="43" spans="1:9" ht="16.5" customHeight="1">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2627,7 +2895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="50" spans="1:9" ht="16.5" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>144</v>
       </c>
@@ -2864,7 +3132,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" hidden="1" customHeight="1">
+    <row r="59" spans="1:9" ht="16.5" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>155</v>
       </c>
@@ -2939,7 +3207,7 @@
         <v>211</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1">
@@ -2962,7 +3230,7 @@
         <v>217</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" customHeight="1">
@@ -2991,7 +3259,7 @@
         <v>221</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" customHeight="1">
@@ -3020,38 +3288,347 @@
         <v>15</v>
       </c>
     </row>
+    <row r="65" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A67" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A68" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A69" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A73" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A74" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A75" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A76" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A77" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A78" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A79" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I59" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="财经线培训生—专业类"/>
-        <filter val="财务管理"/>
-        <filter val="策略研究——风控"/>
-        <filter val="策略研究员"/>
-        <filter val="产品管培"/>
-        <filter val="大周期研究员"/>
-        <filter val="风控策略"/>
-        <filter val="风控模型-汽车金融"/>
-        <filter val="风险策略分析师"/>
-        <filter val="风险策略运营"/>
-        <filter val="风险管理类"/>
-        <filter val="高频因子方向"/>
-        <filter val="股票研究员"/>
-        <filter val="管培"/>
-        <filter val="金融风控策略"/>
-        <filter val="金融风险管理"/>
-        <filter val="量化研究员"/>
-        <filter val="数据风控岗"/>
-        <filter val="投资研究岗"/>
-        <filter val="信用分析师"/>
-        <filter val="行业研究"/>
-        <filter val="行业研究员"/>
-        <filter val="研究部实习生"/>
-        <filter val="早鸟计划"/>
-        <filter val="总行管培"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{6CC215BE-1F12-4989-B9D2-40ED01391DC5}">
@@ -3112,8 +3689,22 @@
     <hyperlink ref="H61" r:id="rId51" location="/job/dbdfd769-a8d7-4e74-86a1-8af1e1ded075" display="https://app.mokahr.com/campus-recruitment/tianyancapital/98902?locale=zh-CN - /job/dbdfd769-a8d7-4e74-86a1-8af1e1ded075" xr:uid="{0B91A88D-6560-4697-ACDC-A551AF02B439}"/>
     <hyperlink ref="H62" r:id="rId52" display="http://www.dclfund.com/internship-plan/" xr:uid="{944F8096-CE9E-488F-BE72-E1C856490222}"/>
     <hyperlink ref="H63" r:id="rId53" display="https://hr-campus.vivo.com/campus/detail?jobAdId=c233723c-6aa4-4634-9472-7c1f37d57120" xr:uid="{E1A3358B-D990-493F-A9AE-F55558EAAEF4}"/>
+    <hyperlink ref="H65" r:id="rId54" display="https://join.mhfunds.com/index/position/7538744389126211850/detail" xr:uid="{633F4FB4-0B46-48F3-A9AD-7BC1D16F4974}"/>
+    <hyperlink ref="H66" r:id="rId55" display="https://campus.pingan.com/positionDetail?positionId=e1dcef27f01231a2b6e70a99b103e98e" xr:uid="{948BF8FF-A2FB-4808-B4E9-266FD41844FB}"/>
+    <hyperlink ref="H67" r:id="rId56" location="/job/b7e6769b-5210-4267-80e8-754844bc7d80" display="https://campus.didiglobal.com/campus_apply/didiglobal/96064 - /job/b7e6769b-5210-4267-80e8-754844bc7d80" xr:uid="{45CC7C4A-ED7C-45E1-993A-63DD0188D849}"/>
+    <hyperlink ref="H68" r:id="rId57" display="https://maker.haier.net/client/campus/deliverfirst/id/47/fid/4/rid/525.html" xr:uid="{5C9A34E9-179C-4CFA-875A-3A37571C4FD0}"/>
+    <hyperlink ref="H69" r:id="rId58" display="https://csc108.zhiye.com/campus/jobs" xr:uid="{58642638-7F00-4E23-9A17-6B6AC308393C}"/>
+    <hyperlink ref="H70" r:id="rId59" display="https://hr.sangfor.com/campucompon/Delivery/4313" xr:uid="{4701DF97-FAA4-4BFD-BDAB-9CBB5019DCA2}"/>
+    <hyperlink ref="H71" r:id="rId60" display="https://hkaco.zhiye.com/campus/jobs?1=%5B%7B%22id%22%3A%224%22%2C%22label%22%3A%22%E8%81%8C%E8%83%BD%E7%B1%BB%22%7D%5D" xr:uid="{2F2144BC-3073-40C5-99FA-3E6114D0BBFD}"/>
+    <hyperlink ref="H72" r:id="rId61" display="https://talent.antgroup.com/campus-position?positionId=25080506091131&amp;tid=218edb9c17560158147213744e4e88" xr:uid="{D56B0193-3658-485E-80C1-FABC943D31CA}"/>
+    <hyperlink ref="H73" r:id="rId62" display="https://recruit.wanyantech.com/campus/position/7402168772339812671/detail" xr:uid="{6A189483-6EF1-4BA0-9F2B-48EDA2CE38E5}"/>
+    <hyperlink ref="H75" r:id="rId63" display="https://career.huawei.com/reccampportal/portal5/campus-recruitment-detail.html?jobId=24310&amp;dataSource=1&amp;jobType=0&amp;recruitType=CR&amp;sourceType=001" xr:uid="{D77E2EBA-BF18-4D26-86A0-E4E22CBA4A69}"/>
+    <hyperlink ref="H74" r:id="rId64" xr:uid="{0EBFB663-1ABC-48C8-A41D-A7C14139E025}"/>
+    <hyperlink ref="H76" r:id="rId65" xr:uid="{F6935D18-8428-4F71-81D4-0B3234BBA1AA}"/>
+    <hyperlink ref="H77" r:id="rId66" display="https://bosc.zhiye.com/campus/jobs?2=%5B%7B%22id%22%3A%2210%22%2C%22label%22%3A%22%E6%80%BB%E8%A1%8C%22%7D%5D" xr:uid="{1DA5278E-B809-455F-89FA-6456F5E0AA31}"/>
+    <hyperlink ref="H79" r:id="rId67" display="https://wecruit.hotjob.cn/SU60867bdc2f9d2403ab74fbf7/pb/posDetail.html?postId=68a2d4b61343c325ffa618ac&amp;postType=campus" xr:uid="{07599D9A-3594-4567-B4E8-D36C6E6A9A2D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>